--- a/LOST.xlsx
+++ b/LOST.xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Deals Control\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69605D25-48BD-49D0-A7CF-3537E1186F53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +51,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,115 +353,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>195097</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>195191</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>195227</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>854399</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>887851</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>670565</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>858318</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>865884</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>867149</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>869919</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>909795</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>909831</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>909930</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>742610</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>872047</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>819337</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>882009</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>829501</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>793328</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/LOST.xlsx
+++ b/LOST.xlsx
@@ -1,38 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Deals Control\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69605D25-48BD-49D0-A7CF-3537E1186F53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -353,15 +408,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1"/>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/LOST.xlsx
+++ b/LOST.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,6 +422,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1"/>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>197475</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LOST.xlsx
+++ b/LOST.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,10 +421,1365 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>524493</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>197475</v>
+        <v>786663</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>786678</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>786696</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>655667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>787299</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>787579</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>787585</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>787781</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>787970</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>787974</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>787978</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>787984</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>787985</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>788056</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>788069</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>788099</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>788101</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>788104</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>788171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>788197</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>526061</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>788235</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>788500</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>788875</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>658217</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>790104</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>790118</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>790698</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>790790</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>791111</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>660357</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>791515</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>792063</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>792429</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>661851</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>793325</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>793364</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>793944</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>532329</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>795009</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>795380</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>533387</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>795812</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>795986</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>796534</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>534463</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>796711</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>796863</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>797011</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>797300</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>797332</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>797354</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>797509</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>666673</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>798355</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>798462</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>798984</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>799294</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>668245</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>668343</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>799565</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>668541</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>668553</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>668687</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>799767</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>799852</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>669057</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>538495</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>800783</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>800832</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>800885</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>800967</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>801107</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>801489</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>801522</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>539563</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>801928</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>801953</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>802081</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>539967</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>802334</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>802493</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>802642</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>802783</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>803504</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>803798</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>541673</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>803851</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>804161</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>673141</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>804282</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>674265</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>806462</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>676173</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>676181</v>
+      </c>
+    </row>
+    <row r="97"/>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>679611</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>681899</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>813469</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>555767</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>687697</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>690961</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>562239</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>563231</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>563343</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>563755</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>437973</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>700293</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>700943</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>706048</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>706546</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>708335</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>711338</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>582933</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>716728</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>586053</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>719459</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>326815</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>326891</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>721275</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>721776</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>722326</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>722438</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>593567</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>595219</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>595761</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>595851</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>596073</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>728218</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>597199</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>728517</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>730431</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>730435</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>730533</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>730629</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>731194</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>469799</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>732199</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>340029</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>733276</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>733371</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>733623</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>734125</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>735044</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>735380</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>735523</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>735612</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>736066</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>605369</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>736466</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>736616</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>736625</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>737252</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>737326</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>737490</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>737572</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>737631</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>83019</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>738505</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>738674</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>739269</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>739451</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>608733</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>739872</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>739933</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>740074</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>609055</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>741398</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>741508</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>742610</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>742767</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>742997</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>743149</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>612679</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>613413</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>744485</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>613599</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>745132</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>614249</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>745732</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>746521</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>747421</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>747771</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>747901</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>617731</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>749666</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>749779</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>749826</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>750299</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>750804</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>621325</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>752681</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>752711</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>755995</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>758023</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>628319</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>762255</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>762576</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>500577</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>632533</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>763709</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>763748</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>764182</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>764338</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>633543</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>765344</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>766216</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>373819</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>768115</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>506125</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>637213</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>768382</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>768498</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>768617</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>637555</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>768694</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>768823</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>769191</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>769340</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>769807</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>769831</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>770141</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>770184</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>508539</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>771140</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>772341</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>772546</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>772880</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>773043</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>642125</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>773266</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>380635</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>775148</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>775209</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>776381</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>776925</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>515159</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>646479</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>647249</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>778817</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>648459</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>648517</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>780687</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>780724</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>781329</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>782013</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>782295</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>782658</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>651613</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>651623</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>783312</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>783741</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>784452</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>784454</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>784477</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>784509</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>784537</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>784548</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>784601</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>784630</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>784660</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>784669</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>784688</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>784958</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>784966</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>784991</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>785004</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>785291</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>785472</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>785505</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>785546</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>785677</v>
       </c>
     </row>
   </sheetData>

--- a/LOST.xlsx
+++ b/LOST.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A273"/>
+  <dimension ref="A1:A246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,1363 +423,1232 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>524493</v>
+        <v>706048</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>786663</v>
+        <v>787970</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>786678</v>
+        <v>730629</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>786696</v>
+        <v>787974</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>655667</v>
+        <v>722438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>787299</v>
+        <v>787978</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>787579</v>
+        <v>803851</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>787585</v>
+        <v>800783</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>787781</v>
+        <v>787984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>787970</v>
+        <v>787985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>787974</v>
+        <v>700943</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>787978</v>
+        <v>781329</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>787984</v>
+        <v>788500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>787985</v>
+        <v>741398</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>788056</v>
+        <v>799767</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>788069</v>
+        <v>746521</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>788099</v>
+        <v>802334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>788101</v>
+        <v>563231</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>788104</v>
+        <v>739872</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>788171</v>
+        <v>613413</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>788197</v>
+        <v>744485</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>526061</v>
+        <v>796711</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>788235</v>
+        <v>732199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>788500</v>
+        <v>752681</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>788875</v>
+        <v>775209</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>658217</v>
+        <v>563755</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>790104</v>
+        <v>737326</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>790118</v>
+        <v>666673</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>790698</v>
+        <v>731194</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>790790</v>
+        <v>373819</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>791111</v>
+        <v>340029</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>660357</v>
+        <v>799294</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>791515</v>
+        <v>806462</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>792063</v>
+        <v>800832</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>792429</v>
+        <v>562239</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>661851</v>
+        <v>778817</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>793325</v>
+        <v>784958</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>793364</v>
+        <v>771140</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>793944</v>
+        <v>784452</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>532329</v>
+        <v>784454</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>795009</v>
+        <v>791111</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>795380</v>
+        <v>752711</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>533387</v>
+        <v>784966</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>795812</v>
+        <v>83019</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>795986</v>
+        <v>642125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>796534</v>
+        <v>687697</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>534463</v>
+        <v>647249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>796711</v>
+        <v>742997</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>796863</v>
+        <v>515159</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>797011</v>
+        <v>788056</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>797300</v>
+        <v>790104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>797332</v>
+        <v>733276</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>797354</v>
+        <v>739933</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>797509</v>
+        <v>770141</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>666673</v>
+        <v>628319</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>798355</v>
+        <v>784477</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>798462</v>
+        <v>784991</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>798984</v>
+        <v>749666</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>799294</v>
+        <v>719459</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>668245</v>
+        <v>785505</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>668343</v>
+        <v>788069</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>799565</v>
+        <v>790118</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>668541</v>
+        <v>596073</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>668553</v>
+        <v>799852</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>668687</v>
+        <v>785004</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>799767</v>
+        <v>797300</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>799852</v>
+        <v>800885</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>669057</v>
+        <v>787579</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>538495</v>
+        <v>739451</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>800783</v>
+        <v>508539</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>800832</v>
+        <v>784509</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>800885</v>
+        <v>787585</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>800967</v>
+        <v>788099</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>801107</v>
+        <v>741508</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>801489</v>
+        <v>788101</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>801522</v>
+        <v>788104</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>539563</v>
+        <v>801928</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>801928</v>
+        <v>770184</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>801953</v>
+        <v>785546</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>802081</v>
+        <v>563343</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>539967</v>
+        <v>773266</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>802334</v>
+        <v>798355</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>802493</v>
+        <v>797332</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>802642</v>
+        <v>735380</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>802783</v>
+        <v>784537</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>803504</v>
+        <v>728218</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>803798</v>
+        <v>326815</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>541673</v>
+        <v>593567</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>803851</v>
+        <v>801953</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>804161</v>
+        <v>795812</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>673141</v>
+        <v>784548</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>804282</v>
+        <v>769191</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>674265</v>
+        <v>790698</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>806462</v>
+        <v>797354</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>676173</v>
+        <v>711338</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>676181</v>
-      </c>
-    </row>
-    <row r="97"/>
+        <v>745132</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>803504</v>
+      </c>
+    </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>679611</v>
+        <v>768694</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>681899</v>
+        <v>679611</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>813469</v>
+        <v>733371</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>555767</v>
+        <v>802493</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>687697</v>
+        <v>776381</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>690961</v>
+        <v>796863</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>562239</v>
+        <v>782013</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>563231</v>
+        <v>800967</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>563343</v>
+        <v>633543</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>563755</v>
+        <v>738505</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>437973</v>
+        <v>788171</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>700293</v>
+        <v>524493</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>700943</v>
+        <v>597199</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>706048</v>
+        <v>801489</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>706546</v>
+        <v>736466</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>708335</v>
+        <v>737490</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>711338</v>
+        <v>742610</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>582933</v>
+        <v>437973</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>716728</v>
+        <v>749779</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>586053</v>
+        <v>750804</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>719459</v>
+        <v>784601</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>326815</v>
+        <v>750299</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>326891</v>
+        <v>380635</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>721275</v>
+        <v>776925</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>721776</v>
+        <v>613599</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>722326</v>
+        <v>788197</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>722438</v>
+        <v>786663</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>593567</v>
+        <v>326891</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>595219</v>
+        <v>526061</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>595761</v>
+        <v>793325</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>595851</v>
+        <v>743149</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>596073</v>
+        <v>801522</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>728218</v>
+        <v>795380</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>597199</v>
+        <v>772341</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>728517</v>
+        <v>786678</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>730431</v>
+        <v>555767</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>730435</v>
+        <v>784630</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>730533</v>
+        <v>747771</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>730629</v>
+        <v>798462</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>731194</v>
+        <v>749826</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>469799</v>
+        <v>617731</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>732199</v>
+        <v>790790</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>340029</v>
+        <v>758023</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>733276</v>
+        <v>786696</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>733371</v>
+        <v>798984</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>733623</v>
+        <v>766216</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>734125</v>
+        <v>788235</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>735044</v>
+        <v>648459</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>735380</v>
+        <v>621325</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>735523</v>
+        <v>506125</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>735612</v>
+        <v>769807</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>736066</v>
+        <v>772880</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>605369</v>
+        <v>785677</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>736466</v>
+        <v>595219</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>736616</v>
+        <v>793364</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>736625</v>
+        <v>582933</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>737252</v>
+        <v>784660</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>737326</v>
+        <v>755995</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>737490</v>
+        <v>637213</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>737572</v>
+        <v>784669</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>737631</v>
+        <v>609055</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>83019</v>
+        <v>802081</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>738505</v>
+        <v>785472</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>738674</v>
+        <v>737572</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>739269</v>
+        <v>469799</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>739451</v>
+        <v>769831</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>608733</v>
+        <v>784688</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>739872</v>
+        <v>595761</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>739933</v>
+        <v>655667</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>740074</v>
+        <v>768823</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>609055</v>
+        <v>769340</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>741398</v>
+        <v>763709</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>741508</v>
+        <v>539967</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>742610</v>
+        <v>730431</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>742767</v>
+        <v>804161</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>742997</v>
+        <v>736066</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>743149</v>
+        <v>730435</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>612679</v>
+        <v>735044</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>613413</v>
+        <v>787781</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>744485</v>
+        <v>797509</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>613599</v>
+        <v>586053</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>745132</v>
+        <v>612679</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>614249</v>
+        <v>648517</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>745732</v>
+        <v>782658</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>746521</v>
+        <v>799565</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>747421</v>
+        <v>646479</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>747771</v>
+        <v>795986</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>747901</v>
+        <v>797011</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>617731</v>
+        <v>801107</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>749666</v>
+        <v>802642</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>749779</v>
+        <v>793944</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>749826</v>
+        <v>661851</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>750299</v>
+        <v>651613</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>750804</v>
+        <v>737631</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>621325</v>
+        <v>787299</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>752681</v>
+        <v>763748</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>752711</v>
+        <v>651623</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>755995</v>
+        <v>736616</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>758023</v>
+        <v>532329</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>628319</v>
+        <v>614249</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>762255</v>
+        <v>792429</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>762576</v>
+        <v>721776</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>500577</v>
+        <v>736625</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>632533</v>
+        <v>738674</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>763709</v>
+        <v>796534</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>763748</v>
+        <v>721275</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>764182</v>
+        <v>735612</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>764338</v>
+        <v>747901</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>633543</v>
+        <v>768382</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>765344</v>
+        <v>538495</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>766216</v>
+        <v>783741</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>373819</v>
+        <v>795009</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>768115</v>
+        <v>660357</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>506125</v>
+        <v>700293</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>637213</v>
+        <v>788875</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>768382</v>
+        <v>533387</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>768498</v>
+        <v>595851</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>768617</v>
+        <v>785291</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>637555</v>
+        <v>762255</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>768694</v>
+        <v>780687</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>768823</v>
+        <v>722326</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>769191</v>
+        <v>813469</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>769340</v>
+        <v>747421</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>769807</v>
+        <v>765344</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>769831</v>
+        <v>730533</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>770141</v>
+        <v>539563</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>770184</v>
+        <v>681899</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>508539</v>
+        <v>734125</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>771140</v>
+        <v>764338</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>772341</v>
+        <v>773043</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>772546</v>
+        <v>780724</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>772880</v>
+        <v>733623</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>773043</v>
+        <v>716728</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>642125</v>
+        <v>804282</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>773266</v>
+        <v>534463</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>380635</v>
+        <v>772546</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>775148</v>
+        <v>728517</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>775209</v>
+        <v>739269</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>776381</v>
+        <v>783312</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>776925</v>
+        <v>803798</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>515159</v>
+        <v>782295</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>646479</v>
+        <v>791515</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>647249</v>
+        <v>608733</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>778817</v>
+        <v>802783</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>648459</v>
+        <v>737252</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>648517</v>
+        <v>541673</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>780687</v>
+        <v>775148</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>780724</v>
+        <v>706546</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>781329</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>782013</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>782295</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>782658</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>651613</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>651623</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>783312</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>783741</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>784452</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>784454</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>784477</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>784509</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>784537</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>784548</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>784601</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>784630</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>784660</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>784669</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>784688</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>784958</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>784966</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>784991</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>785004</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>785291</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>785472</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>785505</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>785546</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>785677</v>
+        <v>792063</v>
       </c>
     </row>
   </sheetData>
